--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Modulos</t>
   </si>
@@ -45,21 +45,12 @@
     <t>lista de doencas raras (tabela) - admin</t>
   </si>
   <si>
-    <t>cadastro de doencas raras - admin</t>
-  </si>
-  <si>
     <t>enciclopedia de doencas raras  - user</t>
   </si>
   <si>
-    <t>Usuarios</t>
-  </si>
-  <si>
     <t>lista de profissionais da saude (tabela) - admin</t>
   </si>
   <si>
-    <t>cadastro de profissionais da saude- admin</t>
-  </si>
-  <si>
     <t>login do admin</t>
   </si>
   <si>
@@ -69,20 +60,137 @@
     <t>pagina inicial do site  - admin</t>
   </si>
   <si>
-    <t>cadastro de doente - user</t>
-  </si>
-  <si>
-    <t>lista de doencas raras - user</t>
-  </si>
-  <si>
     <t>login do doente/representante - user</t>
+  </si>
+  <si>
+    <t>pedir apoio - user</t>
+  </si>
+  <si>
+    <t>Usuarios - profissional da saude</t>
+  </si>
+  <si>
+    <t>Usuarios - doente/representante</t>
+  </si>
+  <si>
+    <t>perfil (visualisar e editar)-user</t>
+  </si>
+  <si>
+    <t>Publicacoes - documentoos</t>
+  </si>
+  <si>
+    <t>lista de documentos - admin</t>
+  </si>
+  <si>
+    <t>publicar documento - admin</t>
+  </si>
+  <si>
+    <t>relatorios - user</t>
+  </si>
+  <si>
+    <t>descricao do relatorio - user</t>
+  </si>
+  <si>
+    <t>lista de  artigos - admin</t>
+  </si>
+  <si>
+    <t>lista de artigos - user</t>
+  </si>
+  <si>
+    <t>ler um artigo - user</t>
+  </si>
+  <si>
+    <t>Publicacoes -  artigos</t>
+  </si>
+  <si>
+    <t>publicacoes - campanhas</t>
+  </si>
+  <si>
+    <t>lista de  campanhas - admin</t>
+  </si>
+  <si>
+    <t>pagina de campanhas - user</t>
+  </si>
+  <si>
+    <t>instituicoes da saude</t>
+  </si>
+  <si>
+    <t>lista de (farmacias, unidade hospitalar, etc)(tabela)  - admin</t>
+  </si>
+  <si>
+    <t>lista de (farmacias, unidade hospitalar, etc) - user</t>
+  </si>
+  <si>
+    <t>gerir de pedidos de apoio -admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensagens </t>
+  </si>
+  <si>
+    <t>gerir mensagens de contacto -admin</t>
+  </si>
+  <si>
+    <t>Enviar mensagens (contacte-nos) - admin</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>EP - Em Progresso</t>
+  </si>
+  <si>
+    <t>F - Feito</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PM -por melhorar</t>
+  </si>
+  <si>
+    <t>cadastro  e edicao  de doencas raras - admin</t>
+  </si>
+  <si>
+    <t>cadastro e edicao de profissionais da saude- admin</t>
+  </si>
+  <si>
+    <t>cadastro e edicao de doente - user</t>
+  </si>
+  <si>
+    <t>publicar e editar artigo - admin</t>
+  </si>
+  <si>
+    <t>publicar e editar campanha - admin</t>
+  </si>
+  <si>
+    <t>cadastrar e edicao  uma instituicao - admin</t>
+  </si>
+  <si>
+    <t>FOLEGE</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>EDMILSOM</t>
+  </si>
+  <si>
+    <t>JOSSIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +198,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,21 +229,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -417,122 +586,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Modulos</t>
   </si>
@@ -57,9 +62,6 @@
     <t>pagina inicial do admin (painel de controlo) - admin</t>
   </si>
   <si>
-    <t>pagina inicial do site  - admin</t>
-  </si>
-  <si>
     <t>login do doente/representante - user</t>
   </si>
   <si>
@@ -87,9 +89,6 @@
     <t>relatorios - user</t>
   </si>
   <si>
-    <t>descricao do relatorio - user</t>
-  </si>
-  <si>
     <t>lista de  artigos - admin</t>
   </si>
   <si>
@@ -177,20 +176,29 @@
     <t>EP</t>
   </si>
   <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
     <t>EDMILSOM</t>
   </si>
   <si>
     <t>JOSSIAS</t>
+  </si>
+  <si>
+    <t>Enviar mensagens (contacte-nos) - USER</t>
+  </si>
+  <si>
+    <t>relatorios - userrelatorios - userrelatorios - user</t>
+  </si>
+  <si>
+    <t>pagina inicial do site  - user</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +209,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,21 +264,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -288,12 +389,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -302,7 +412,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,9 +450,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,25 +714,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -630,425 +740,534 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>54</v>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G33">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G33">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -16,12 +16,12 @@
     <sheet name="back-end" sheetId="2" r:id="rId2"/>
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Modulos</t>
   </si>
@@ -128,9 +128,6 @@
     <t>gerir mensagens de contacto -admin</t>
   </si>
   <si>
-    <t>Enviar mensagens (contacte-nos) - admin</t>
-  </si>
-  <si>
     <t>forum</t>
   </si>
   <si>
@@ -185,20 +182,53 @@
     <t>Enviar mensagens (contacte-nos) - USER</t>
   </si>
   <si>
-    <t>relatorios - userrelatorios - userrelatorios - user</t>
-  </si>
-  <si>
     <t>pagina inicial do site  - user</t>
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U-URGENTE</t>
+  </si>
+  <si>
+    <t>UC05,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publicar testemunhos-user </t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC011</t>
+  </si>
+  <si>
+    <t>UC019</t>
+  </si>
+  <si>
+    <t>UC002</t>
+  </si>
+  <si>
+    <t>UC016</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>UC001</t>
+  </si>
+  <si>
+    <t>Trabalho feito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +278,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,10 +310,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -274,23 +324,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -312,48 +385,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,7 +420,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -696,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,38 +774,34 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -782,13 +809,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -800,14 +827,12 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -817,11 +842,13 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -830,42 +857,48 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -876,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -892,13 +925,15 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -906,293 +941,280 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1200,72 +1222,104 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9">
+        <f>(COUNTIF(D2:D32,"F")/(COUNTA(D2:D32)+COUNTBLANK(D2:D32)))</f>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="E34" s="9">
+        <f>(COUNTIF(E2:E32,"F")/(COUNTA(E2:E32)+COUNTBLANK(E2:E32)))</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:G34" si="0">(COUNTIF(F2:F32,"F")/(COUNTA(F2:F32)+COUNTBLANK(F2:F32)))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G33">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G33">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G33">
+  <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G33">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"EP"</formula>
+      <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Modulos</t>
   </si>
@@ -92,9 +92,6 @@
     <t>lista de  artigos - admin</t>
   </si>
   <si>
-    <t>lista de artigos - user</t>
-  </si>
-  <si>
     <t>ler um artigo - user</t>
   </si>
   <si>
@@ -222,6 +219,15 @@
   </si>
   <si>
     <t>Trabalho feito</t>
+  </si>
+  <si>
+    <t>Neima</t>
+  </si>
+  <si>
+    <t>Jossias</t>
+  </si>
+  <si>
+    <t>Edmilson</t>
   </si>
 </sst>
 </file>
@@ -335,21 +341,7 @@
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -392,6 +384,62 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -420,7 +468,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -727,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,29 +824,25 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -809,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -829,10 +873,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -844,10 +888,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -859,31 +903,29 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,14 +933,14 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -909,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -927,13 +969,11 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -941,47 +981,47 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -995,14 +1035,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,7 +1052,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1025,7 +1065,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1033,25 +1073,29 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1063,90 +1107,112 @@
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="K25" s="10"/>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1155,129 +1221,100 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9">
+        <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="E32" s="9">
+        <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="F32" s="9">
+        <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9">
-        <f>(COUNTIF(D2:D32,"F")/(COUNTA(D2:D32)+COUNTBLANK(D2:D32)))</f>
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="E34" s="9">
-        <f>(COUNTIF(E2:E32,"F")/(COUNTA(E2:E32)+COUNTBLANK(E2:E32)))</f>
-        <v>0.19354838709677419</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:G34" si="0">(COUNTIF(F2:F32,"F")/(COUNTA(F2:F32)+COUNTBLANK(F2:F32)))</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1285,40 +1322,40 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G33">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G33">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Modulos</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Edmilson</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -324,24 +327,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -388,62 +391,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -468,7 +415,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -777,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +763,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -831,7 +778,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -848,7 +795,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -865,7 +812,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -882,7 +829,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -897,7 +844,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -910,7 +857,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -929,7 +876,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -939,14 +886,14 @@
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -963,7 +910,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -976,7 +923,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -984,7 +931,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>54</v>
@@ -995,8 +942,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1010,7 +957,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1027,7 +974,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1046,7 +993,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1059,7 +1006,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1019,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1080,7 +1027,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1089,7 +1036,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1049,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1062,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1123,7 +1070,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1132,13 +1079,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1147,22 +1094,24 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1173,10 +1122,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1191,7 +1140,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1153,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1219,7 +1168,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1181,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1262,40 +1211,40 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7">
         <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
-        <v>0.72413793103448276</v>
-      </c>
-      <c r="E32" s="9">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="E32" s="7">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
         <v>0.20689655172413793</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="back-end" sheetId="2" r:id="rId2"/>
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Modulos</t>
   </si>
@@ -170,9 +165,6 @@
     <t>EP</t>
   </si>
   <si>
-    <t>EDMILSOM</t>
-  </si>
-  <si>
     <t>JOSSIAS</t>
   </si>
   <si>
@@ -231,6 +223,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>EDMILSON</t>
   </si>
 </sst>
 </file>
@@ -323,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -339,9 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -438,7 +434,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,9 +472,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,7 +721,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +779,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -800,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -862,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -880,14 +876,14 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -898,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -928,26 +924,26 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -962,13 +958,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -989,7 +985,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,7 +999,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1032,7 +1030,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1075,7 +1073,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1090,7 +1088,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,7 +1105,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1136,7 +1134,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,7 +1181,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1203,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1221,7 +1219,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1263,7 +1261,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Modulos</t>
   </si>
@@ -165,9 +165,6 @@
     <t>EP</t>
   </si>
   <si>
-    <t>JOSSIAS</t>
-  </si>
-  <si>
     <t>Enviar mensagens (contacte-nos) - USER</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>U-URGENTE</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
   </si>
   <si>
     <t>Neima</t>
-  </si>
-  <si>
-    <t>Jossias</t>
   </si>
   <si>
     <t>Edmilson</t>
@@ -328,13 +319,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Correcto" xfId="1" builtinId="26"/>
@@ -720,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +750,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -774,12 +765,12 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -791,12 +782,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -808,7 +799,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -825,7 +816,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -840,7 +831,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -853,12 +844,12 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -872,29 +863,29 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -906,7 +897,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -919,31 +910,29 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -953,24 +942,24 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -985,11 +974,11 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -999,12 +988,12 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="11" t="s">
-        <v>69</v>
+      <c r="G16" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1006,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1030,11 +1019,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1047,7 +1036,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1049,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1073,11 +1062,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1088,11 +1077,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1100,16 +1089,12 @@
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1123,7 +1108,7 @@
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1134,11 +1119,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1136,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1166,7 +1151,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1179,9 +1164,9 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1201,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1219,7 +1204,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1229,7 +1214,7 @@
       </c>
       <c r="E32" s="7">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
-        <v>0.20689655172413793</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="F32" s="7">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
@@ -1238,11 +1223,11 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1261,7 +1246,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="back-end" sheetId="2" r:id="rId2"/>
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>Modulos</t>
   </si>
@@ -165,6 +170,9 @@
     <t>EP</t>
   </si>
   <si>
+    <t>EDMILSOM</t>
+  </si>
+  <si>
     <t>Enviar mensagens (contacte-nos) - USER</t>
   </si>
   <si>
@@ -183,9 +191,6 @@
     <t xml:space="preserve">publicar testemunhos-user </t>
   </si>
   <si>
-    <t>UC006</t>
-  </si>
-  <si>
     <t>UC011</t>
   </si>
   <si>
@@ -207,16 +212,22 @@
     <t>Trabalho feito</t>
   </si>
   <si>
-    <t>Neima</t>
-  </si>
-  <si>
-    <t>Edmilson</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>EDMILSON</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Modelo Entidade relacional</t>
+  </si>
+  <si>
+    <t>Modelo  relacional</t>
+  </si>
+  <si>
+    <t>Modelo logico</t>
+  </si>
+  <si>
+    <t>Normalizacao</t>
   </si>
 </sst>
 </file>
@@ -319,7 +330,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,7 +341,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -425,7 +438,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,9 +476,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +739,7 @@
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -760,11 +773,15 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
@@ -781,7 +798,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -798,7 +815,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -815,7 +832,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -830,7 +847,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -843,7 +860,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
@@ -855,19 +872,17 @@
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -879,7 +894,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -896,7 +911,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -909,7 +924,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -918,7 +933,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
@@ -926,13 +941,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -941,7 +956,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
@@ -953,12 +968,12 @@
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
@@ -974,10 +989,10 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -988,8 +1003,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="9" t="s">
-        <v>66</v>
+      <c r="G16" s="2"/>
+      <c r="J16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1018,9 +1034,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1061,9 +1075,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -1076,9 +1088,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -1101,7 +1111,9 @@
         <v>29</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1114,13 +1126,11 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -1166,7 +1176,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1186,9 +1196,11 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1210,7 +1222,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="7">
         <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
-        <v>0.89655172413793105</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
@@ -1223,33 +1235,40 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="yn5SryO/YfCjWFGpN596PKsOrvzTiMQ8b8T9lXC+YXP9B4XT9Iodvgml7g8idXWqeuCOBare/SzFtK9O1J6ggw==" saltValue="QKCVkiveS/Gc6oN0BOBCyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1262,37 +1281,70 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD33 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FBD8470D-68A5-47E9-9B0D-035FAA6A33F2}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FBD8470D-68A5-47E9-9B0D-035FAA6A33F2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1312,14 +1364,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>Modulos</t>
   </si>
@@ -170,9 +170,6 @@
     <t>EP</t>
   </si>
   <si>
-    <t>EDMILSOM</t>
-  </si>
-  <si>
     <t>Enviar mensagens (contacte-nos) - USER</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>Normalizacao</t>
+  </si>
+  <si>
+    <t>UC014</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -320,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -328,9 +334,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -339,12 +347,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -415,7 +537,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -724,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -804,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -866,13 +988,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -882,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -900,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -930,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -944,10 +1066,10 @@
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -962,13 +1084,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -985,12 +1107,10 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1005,7 +1125,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,7 +1202,9 @@
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1221,9 @@
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
@@ -1117,7 +1241,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -1141,7 +1265,9 @@
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
@@ -1156,7 +1282,9 @@
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
@@ -1176,7 +1304,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1196,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1214,25 +1342,25 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12">
         <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
         <v>1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="12">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="F32" s="7">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="F32" s="12">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -1240,7 +1368,7 @@
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1264,11 +1392,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yn5SryO/YfCjWFGpN596PKsOrvzTiMQ8b8T9lXC+YXP9B4XT9Iodvgml7g8idXWqeuCOBare/SzFtK9O1J6ggw==" saltValue="QKCVkiveS/Gc6oN0BOBCyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1281,37 +1408,37 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD33 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1322,6 +1449,16 @@
           <x14:id>{FBD8470D-68A5-47E9-9B0D-035FAA6A33F2}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,26 +1514,26 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
     <sheet name="back-end" sheetId="2" r:id="rId2"/>
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
+    <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Modulos</t>
   </si>
@@ -221,9 +217,6 @@
     <t>Modelo  relacional</t>
   </si>
   <si>
-    <t>Modelo logico</t>
-  </si>
-  <si>
     <t>Normalizacao</t>
   </si>
   <si>
@@ -234,13 +227,70 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Diagrama de sequencias</t>
+  </si>
+  <si>
+    <t>Diagrama de Actividades/Estados</t>
+  </si>
+  <si>
+    <t>UC004</t>
+  </si>
+  <si>
+    <t>UC005</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>UC008</t>
+  </si>
+  <si>
+    <t>UC009</t>
+  </si>
+  <si>
+    <t>UC010</t>
+  </si>
+  <si>
+    <t>UC012</t>
+  </si>
+  <si>
+    <t>UC013</t>
+  </si>
+  <si>
+    <t>UC015</t>
+  </si>
+  <si>
+    <t>UC017</t>
+  </si>
+  <si>
+    <t>UC018</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>BD Fisica</t>
+  </si>
+  <si>
+    <t>FASES</t>
+  </si>
+  <si>
+    <t>PROGRESSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +328,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +352,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -341,21 +410,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -367,103 +446,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -537,7 +519,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -560,7 +542,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,9 +580,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +867,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -904,7 +886,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -921,7 +903,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -938,7 +920,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -955,7 +937,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -970,7 +952,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -983,7 +965,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1000,7 +982,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1017,7 +999,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1034,7 +1016,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1029,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1046,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1079,7 +1061,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1096,7 +1078,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1113,7 +1095,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1111,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1124,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1157,7 +1139,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1170,7 +1152,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1165,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1198,12 +1180,12 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1213,7 +1195,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1222,13 +1204,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1244,7 +1226,7 @@
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1257,7 +1239,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1266,13 +1248,13 @@
         <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1283,13 +1265,13 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1284,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1348,24 +1330,24 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
         <v>1</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -1408,32 +1390,32 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD33 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1452,7 +1434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1501,42 +1483,246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C14"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Modulos</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>PROGRESSO</t>
+  </si>
+  <si>
+    <t>JOSSIAS</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,10 +917,12 @@
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1336,7 +1341,7 @@
       </c>
       <c r="E32" s="10">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
-        <v>0.31034482758620691</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="F32" s="10">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
@@ -1485,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -32,9 +32,6 @@
     <t>Interface(html 5, css 3 e js)</t>
   </si>
   <si>
-    <t>Validaacao</t>
-  </si>
-  <si>
     <t>caso de uso</t>
   </si>
   <si>
@@ -234,13 +231,19 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Validacao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +276,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,11 +332,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -341,21 +352,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -367,103 +380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -537,7 +453,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -847,7 +763,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -878,365 +794,365 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
+      <c r="A5" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
+      <c r="A9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>24</v>
+      <c r="A18" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1244,90 +1160,90 @@
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>32</v>
+      <c r="A27" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1344,32 +1260,32 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
         <v>1</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,25 +1293,26 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="whLZEaMvyt8mWujK+Fm3ZgABjWUoKjbpU6EVRQc/KlaxU9v7M28rCBJDZ5MPH+9xvQysyCp7elZVp4oGYv3osg==" saltValue="BIlTmF+SOgJoBDePlJEUtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1408,32 +1325,32 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD33 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1452,7 +1369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1514,22 +1431,22 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FOLEGE\ESTUDOS\ENGENHARIA INF\UEM\2019\ENGENHARIA DE SOFTWARE I\PBL ES\Projecto\SAPDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Modulos</t>
   </si>
@@ -160,9 +165,6 @@
     <t>cadastrar e edicao  uma instituicao - admin</t>
   </si>
   <si>
-    <t>FOLEGE</t>
-  </si>
-  <si>
     <t>EP</t>
   </si>
   <si>
@@ -224,9 +226,6 @@
   </si>
   <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Casos de Uso</t>
@@ -417,12 +416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,9 +425,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -545,7 +544,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,9 +582,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -832,7 +831,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +869,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -881,20 +880,18 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -906,26 +903,26 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -942,7 +939,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -957,7 +954,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -965,33 +962,35 @@
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1004,12 +1003,12 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -1021,7 +1020,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1034,12 +1033,12 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -1051,12 +1050,12 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -1066,24 +1065,24 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1100,7 +1099,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1112,11 +1111,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1144,7 +1143,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1156,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1169,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1185,12 +1184,12 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1200,7 +1199,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1209,13 +1208,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1231,7 +1230,7 @@
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1243,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1252,14 +1251,12 @@
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1270,13 +1267,13 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1289,9 +1286,9 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1311,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1341,7 +1338,7 @@
       </c>
       <c r="E32" s="10">
         <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
-        <v>0.27586206896551724</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="F32" s="10">
         <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
@@ -1350,9 +1347,9 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -1379,7 +1376,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1501,16 +1498,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>88</v>
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1518,21 +1515,21 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1561,170 +1558,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FOLEGE\ESTUDOS\ENGENHARIA INF\UEM\2019\ENGENHARIA DE SOFTWARE I\PBL ES\Projecto\SAPDR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Modulos</t>
   </si>
@@ -285,7 +280,7 @@
     <t>PROGRESSO</t>
   </si>
   <si>
-    <t>JOSSIAS</t>
+    <t>FOLEGE</t>
   </si>
 </sst>
 </file>
@@ -433,7 +428,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -544,7 +539,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,9 +577,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +892,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -914,12 +909,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -1485,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1490,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1513,27 +1506,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
     </row>
   </sheetData>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Modulos</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>FOLEGE</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>folege</t>
+  </si>
+  <si>
+    <t>jossias</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -426,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Correcto" xfId="1" builtinId="26"/>
@@ -825,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,10 +902,12 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -973,10 +985,12 @@
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -993,7 +1007,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -1480,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Modulos</t>
   </si>
@@ -160,9 +165,6 @@
     <t>cadastrar e edicao  uma instituicao - admin</t>
   </si>
   <si>
-    <t>EP</t>
-  </si>
-  <si>
     <t>Enviar mensagens (contacte-nos) - USER</t>
   </si>
   <si>
@@ -280,9 +282,6 @@
     <t>PROGRESSO</t>
   </si>
   <si>
-    <t>FOLEGE</t>
-  </si>
-  <si>
     <t>ep</t>
   </si>
   <si>
@@ -290,6 +289,9 @@
   </si>
   <si>
     <t>jossias</t>
+  </si>
+  <si>
+    <t>Neima</t>
   </si>
 </sst>
 </file>
@@ -429,16 +431,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -549,7 +551,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -587,9 +589,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +626,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +661,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +876,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -891,31 +893,31 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -927,7 +929,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -944,7 +946,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -959,7 +961,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -974,30 +976,30 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1007,15 +1009,15 @@
         <v>39</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -1027,7 +1029,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1040,12 +1042,12 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -1057,12 +1059,12 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -1072,24 +1074,24 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1106,7 +1108,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1118,11 +1120,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1137,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1150,7 +1152,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1165,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1178,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1191,12 +1193,12 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1206,7 +1208,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1215,13 +1217,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1231,13 +1233,17 @@
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1245,12 +1251,16 @@
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1258,12 +1268,16 @@
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1274,13 +1288,13 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1293,9 +1307,9 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1315,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1335,7 +1349,7 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1354,9 +1368,9 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -1383,10 +1397,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XDuCysDSq8sSxjAywEiU2FOZ4EnONlTXSx1Nkbl1O7ff71Bn+5o8kun+FfZtlE85xhWHDiJiWi5IE7rEyfJzNg==" saltValue="LFYOVJ6s6dndHBRq4FNoSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1423,7 +1438,7 @@
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A14:XFD33 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39">
+  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39 A14:XFD33">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
@@ -1492,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,48 +1519,47 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
     </row>
   </sheetData>
@@ -1571,21 +1585,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1593,7 +1607,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1601,7 +1615,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1609,7 +1623,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1617,7 +1631,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1625,7 +1639,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1633,7 +1647,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1641,7 +1655,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1649,7 +1663,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1657,7 +1671,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1665,7 +1679,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1673,7 +1687,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1681,7 +1695,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1689,7 +1703,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1697,7 +1711,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1705,7 +1719,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1713,7 +1727,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1721,7 +1735,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1729,7 +1743,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\SAPDR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Modulos</t>
   </si>
@@ -171,9 +166,6 @@
     <t>pagina inicial do site  - user</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>U-URGENTE</t>
   </si>
   <si>
@@ -288,10 +280,34 @@
     <t>folege</t>
   </si>
   <si>
-    <t>jossias</t>
-  </si>
-  <si>
     <t>Neima</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>JOSSIAS</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>lista de testemunhos-user</t>
+  </si>
+  <si>
+    <t>Folege</t>
+  </si>
+  <si>
+    <t>Chelene</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -440,7 +456,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -541,9 +557,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -551,7 +564,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,9 +602,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,7 +639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +865,7 @@
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -892,32 +905,32 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -928,7 +941,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -945,7 +958,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -960,7 +973,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -975,26 +988,24 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -1011,13 +1022,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -1028,7 +1039,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1037,137 +1048,160 @@
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -1178,28 +1212,30 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1210,208 +1246,229 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="16"/>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="7"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>86</v>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A30" s="16"/>
       <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10">
-        <f>(COUNTIF(D2:D30,"F")/(COUNTA(D2:D30)+COUNTBLANK(D2:D30)))</f>
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10">
+        <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
         <v>1</v>
       </c>
-      <c r="E32" s="10">
-        <f>(COUNTIF(E2:E30,"F")/(COUNTA(E2:E30)+COUNTBLANK(E2:E30)))</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="F32" s="10">
-        <f>(COUNTIF(F2:F30,"F")/(COUNTA(F2:F30)+COUNTBLANK(F2:F30)))</f>
+      <c r="E33" s="10">
+        <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F33" s="10">
+        <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>50</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XDuCysDSq8sSxjAywEiU2FOZ4EnONlTXSx1Nkbl1O7ff71Bn+5o8kun+FfZtlE85xhWHDiJiWi5IE7rEyfJzNg==" saltValue="LFYOVJ6s6dndHBRq4FNoSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="F">
@@ -1423,27 +1480,27 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G12 A13 C13:G13 A14:G31">
+  <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G12 A13 C13:G13 A14:G31">
+  <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD12 A13 C13:XFD13 A42:XFD1048576 A38:A41 C34:XFD41 B36:B39 A14:XFD33">
+  <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G20">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1457,12 +1514,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G30">
+  <conditionalFormatting sqref="A1:G31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
@@ -1483,7 +1540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G19</xm:sqref>
+          <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1510,7 +1567,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,15 +1578,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1537,7 +1594,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1545,7 +1602,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1553,10 +1610,10 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -1585,21 +1642,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1607,7 +1664,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1615,7 +1672,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1623,7 +1680,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1631,7 +1688,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1639,7 +1696,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1647,7 +1704,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1655,7 +1712,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1663,7 +1720,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1671,7 +1728,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1679,7 +1736,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1687,7 +1744,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1695,7 +1752,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1703,7 +1760,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1711,7 +1768,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1719,7 +1776,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1727,7 +1784,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1735,7 +1792,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1743,7 +1800,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAPDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>Modulos</t>
   </si>
@@ -277,9 +282,6 @@
     <t>ep</t>
   </si>
   <si>
-    <t>folege</t>
-  </si>
-  <si>
     <t>Neima</t>
   </si>
   <si>
@@ -299,9 +301,6 @@
   </si>
   <si>
     <t>lista de testemunhos-user</t>
-  </si>
-  <si>
-    <t>Folege</t>
   </si>
   <si>
     <t>Chelene</t>
@@ -456,7 +455,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -557,6 +556,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -564,7 +566,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,9 +604,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,7 +676,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,12 +919,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -1049,17 +1049,17 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,11 +1152,11 @@
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -1172,11 +1172,11 @@
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1191,12 +1191,10 @@
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
@@ -1207,7 +1205,9 @@
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7"/>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1356,12 +1356,10 @@
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
@@ -1416,7 +1414,7 @@
       </c>
       <c r="E33" s="10">
         <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.46666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
@@ -1458,7 +1456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yf8kbF43w+CB4WEGUvU1aXetht/QoU27usKCmyvM0DI4eChJNxoKO9k2tduTQt96+aK2WdlPhUQ0YjaMBBXLtA==" saltValue="9ZoCN7Xn0ChpOT4kzZtHXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1613,7 +1611,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>Modulos</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>pm</t>
+  </si>
+  <si>
+    <t>Folege</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,9 +1242,13 @@
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -1254,7 +1261,9 @@
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
@@ -1414,7 +1423,7 @@
       </c>
       <c r="E33" s="10">
         <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
@@ -1456,7 +1465,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yf8kbF43w+CB4WEGUvU1aXetht/QoU27usKCmyvM0DI4eChJNxoKO9k2tduTQt96+aK2WdlPhUQ0YjaMBBXLtA==" saltValue="9ZoCN7Xn0ChpOT4kzZtHXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="97">
   <si>
     <t>Modulos</t>
   </si>
@@ -309,7 +309,10 @@
     <t>pm</t>
   </si>
   <si>
-    <t>Folege</t>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Timba</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -450,18 +453,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -511,6 +577,111 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -546,7 +717,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -855,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +1065,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -911,7 +1082,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -928,7 +1099,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -945,7 +1116,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -962,7 +1133,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1148,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -992,7 +1163,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1009,7 +1180,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1026,7 +1197,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1214,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1231,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
@@ -1077,7 +1248,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1265,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1112,7 +1283,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1129,7 +1300,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1146,7 +1317,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1337,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1354,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1200,7 +1371,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1386,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1403,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1243,15 +1414,13 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1268,7 +1437,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1283,7 +1452,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1303,7 +1472,7 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1489,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1506,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1356,7 +1525,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1371,7 +1540,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1423,7 +1592,7 @@
       </c>
       <c r="E33" s="10">
         <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.6333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
@@ -1432,9 +1601,9 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -1478,32 +1647,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1522,12 +1691,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1557,15 +1726,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10">
+        <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B16 B17:C33 B4:C15">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C33 D3:E3">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D33">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D33">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D33">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D33">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
   <si>
     <t>Modulos</t>
   </si>
@@ -292,12 +292,6 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Ep</t>
   </si>
   <si>
     <t>lista de testemunhos-user</t>
@@ -456,22 +450,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -588,111 +582,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -717,7 +606,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1026,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +954,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1082,7 +971,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +988,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1005,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1133,7 +1022,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1037,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1052,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1180,7 +1069,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1197,7 +1086,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1103,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1231,9 +1120,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -1248,7 +1137,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1154,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1283,7 +1172,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1300,7 +1189,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1317,7 +1206,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1326,18 +1215,18 @@
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1346,15 +1235,13 @@
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1371,7 +1258,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1386,7 +1273,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1290,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1420,7 +1307,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1437,7 +1324,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1339,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1472,7 +1359,7 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1489,7 +1376,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1393,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1521,11 +1408,11 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1540,7 +1427,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1479,7 @@
       </c>
       <c r="E33" s="10">
         <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
@@ -1601,9 +1488,9 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -1634,7 +1521,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sBkfOz0XsaX2zicKGQRlm+lvL7Cr/RyCHIUwG4MjDkxWuhxfrtIAfBZSpdtISd3AmBFwDi790qd3H08m3yLaHw==" saltValue="6saO6U8jg0i08RAHUP9eQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1747,14 +1634,14 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1764,7 +1651,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1772,7 +1659,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1667,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1790,11 +1677,11 @@
         <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1689,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1697,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1705,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1828,7 +1715,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1838,7 +1725,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1846,15 +1733,15 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1862,15 +1749,15 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1878,7 +1765,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1888,7 +1775,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1783,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1791,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1914,7 +1801,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1809,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +1817,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1940,7 +1827,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +1835,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1956,7 +1843,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1966,7 +1853,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1861,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1982,7 +1869,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1992,7 +1879,7 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2000,7 +1887,7 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +1895,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>Modulos</t>
   </si>
@@ -219,9 +219,6 @@
     <t>UC014</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>Casos de Uso</t>
   </si>
   <si>
@@ -283,12 +280,6 @@
   </si>
   <si>
     <t>Neima</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>JOSSIAS</t>
   </si>
   <si>
     <t>f</t>
@@ -915,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,29 +1103,25 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -1215,11 +1202,11 @@
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -1282,12 +1269,10 @@
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -1350,11 +1335,11 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7"/>
     </row>
@@ -1368,11 +1353,11 @@
         <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1385,11 +1370,11 @@
         <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1404,11 +1389,11 @@
         <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1479,7 +1464,7 @@
       </c>
       <c r="E33" s="10">
         <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
@@ -1521,7 +1506,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sBkfOz0XsaX2zicKGQRlm+lvL7Cr/RyCHIUwG4MjDkxWuhxfrtIAfBZSpdtISd3AmBFwDi790qd3H08m3yLaHw==" saltValue="6saO6U8jg0i08RAHUP9eQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7lRCA6JR+McndvsaVkjFje+5VqEbJcrcxYPE+PBhcJ+Ygfr+pqsPWXhE7dYTovN+KfMv/Xm1DZ5j79sf2/wskg==" saltValue="HJsKcespqfUyNrBTvqF9Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1615,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1674,10 +1659,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1720,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1735,7 +1720,7 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1982,10 +1967,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2014,10 +1999,10 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -2046,16 +2031,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,7 +2069,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2092,7 +2077,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2100,7 +2085,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2108,7 +2093,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2116,7 +2101,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2124,7 +2109,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2132,7 +2117,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2148,7 +2133,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2156,7 +2141,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2172,7 +2157,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2188,7 +2173,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>Modulos</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Timba</t>
+  </si>
+  <si>
+    <t>Jossias</t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1509,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7lRCA6JR+McndvsaVkjFje+5VqEbJcrcxYPE+PBhcJ+Ygfr+pqsPWXhE7dYTovN+KfMv/Xm1DZ5j79sf2/wskg==" saltValue="HJsKcespqfUyNrBTvqF9Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1598,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E34"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1613,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,33 +1627,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1673,15 +1687,16 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1689,7 +1704,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1699,7 +1714,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1709,7 +1724,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -1717,7 +1732,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>87</v>
@@ -1725,7 +1740,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1733,7 +1748,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="17" t="s">
         <v>51</v>
@@ -1896,6 +1911,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+/c0CFN3eBHS6kjl+D4VHrAZg7WSgMh4FQsAln4Fsi5lW86nyRkSCASoRFKFIms3P6rCD9IZK4GOfr2Shvsy2w==" saltValue="HgjadXpyhJ+CMCSjKrH5bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Jossias</t>
+  </si>
+  <si>
+    <t>Folege</t>
   </si>
 </sst>
 </file>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,8 +981,12 @@
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1059,8 +1066,12 @@
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -1175,8 +1186,12 @@
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -1509,6 +1524,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="envoYpAZSxQMYgH0c7G99IpdNTC3x6OqXSy0Z5LkCLkGbjKT+4j/dXH7sLbwLRY+zPNQN33k/iKWgkBFqb5CPg==" saltValue="0LkZe99fKCRQPfH8PP8hsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1602,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -297,13 +297,13 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>Timba</t>
-  </si>
-  <si>
     <t>Jossias</t>
   </si>
   <si>
-    <t>Folege</t>
+    <t>timba</t>
+  </si>
+  <si>
+    <t>folege</t>
   </si>
 </sst>
 </file>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,11 +1067,9 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -1187,11 +1185,9 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -1486,7 +1482,7 @@
       </c>
       <c r="F33" s="10">
         <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -1524,7 +1520,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="envoYpAZSxQMYgH0c7G99IpdNTC3x6OqXSy0Z5LkCLkGbjKT+4j/dXH7sLbwLRY+zPNQN33k/iKWgkBFqb5CPg==" saltValue="0LkZe99fKCRQPfH8PP8hsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="41LLMOQMtB2RrrFYoJuEr4HQvjEt67ETM+xlxDp+P6daXrCHrxOudgIIgcIogaMoe1ShCEK6Ghp0nSEN5RQLag==" saltValue="/nCwnTfxEDYZX7AYJMAmvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1618,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,11 +1647,9 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
@@ -1663,11 +1657,9 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
@@ -1678,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1689,11 +1681,9 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
@@ -1708,7 +1698,9 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
     </row>
@@ -1787,24 +1779,36 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -1813,24 +1817,36 @@
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
@@ -1839,24 +1855,36 @@
       <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
@@ -1891,24 +1919,36 @@
       <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
@@ -1923,11 +1963,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+/c0CFN3eBHS6kjl+D4VHrAZg7WSgMh4FQsAln4Fsi5lW86nyRkSCASoRFKFIms3P6rCD9IZK4GOfr2Shvsy2w==" saltValue="HgjadXpyhJ+CMCSjKrH5bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9uDRX+ImwqEYTA5Ckg5JdfIemL2BNbXyeusyV0hu1mtI28Lmu2zFjnbWSBWo16KLUueMRXHYPkRp70Bc48i/QA==" saltValue="+o9/Sv+qbPP60Jqeq+1HHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,11 +1944,9 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
@@ -1967,7 +1965,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9uDRX+ImwqEYTA5Ckg5JdfIemL2BNbXyeusyV0hu1mtI28Lmu2zFjnbWSBWo16KLUueMRXHYPkRp70Bc48i/QA==" saltValue="+o9/Sv+qbPP60Jqeq+1HHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MqQ1acM7nK2mlPQZKkMBjy8m55D/kbdz2p5bh8OrvUDlG9yPEz7o+j8bAKzD9M4xywYeerI2Bq0JSZsh6TrYhQ==" saltValue="F0dLmHmo3Cy9VztRn58PZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -1615,7 +1615,7 @@
   <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,11 +1780,9 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
@@ -1792,11 +1790,9 @@
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -1804,11 +1800,9 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -1961,11 +1955,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>0.16666666666666666</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MqQ1acM7nK2mlPQZKkMBjy8m55D/kbdz2p5bh8OrvUDlG9yPEz7o+j8bAKzD9M4xywYeerI2Bq0JSZsh6TrYhQ==" saltValue="F0dLmHmo3Cy9VztRn58PZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rsZvYIt0oMypVb0b6qGPEhZjFuytKnOzpfop+ei6RsmaFdfDLYsvwwagxyAmJQUI8dS2tGuMl+RE46BGheQH0w==" saltValue="6roBv2rEWNBzgyirB3RVMg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -913,7 +913,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="2"/>
@@ -1403,7 +1403,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
@@ -1520,7 +1520,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="41LLMOQMtB2RrrFYoJuEr4HQvjEt67ETM+xlxDp+P6daXrCHrxOudgIIgcIogaMoe1ShCEK6Ghp0nSEN5RQLag==" saltValue="/nCwnTfxEDYZX7AYJMAmvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F1gx5rhJCmNzH92EP+Z3KPD+crNo2PmNTXEZwhtqn5f3pjErnqSVSfHZJEj2bnn7omrkVfIJ0bsE4KPZFzDQLg==" saltValue="XDw6ueb4rdIgRe0Nkys9sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,8 +1753,12 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
@@ -1917,7 +1921,7 @@
         <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1959,7 +1963,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rsZvYIt0oMypVb0b6qGPEhZjFuytKnOzpfop+ei6RsmaFdfDLYsvwwagxyAmJQUI8dS2tGuMl+RE46BGheQH0w==" saltValue="6roBv2rEWNBzgyirB3RVMg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9jn3oK7/p2IuXKEkOea0G0jX8E59SCTQkltETqIUUY6L6xmAufePWXF0KdphPm2zC1F8+gG1A7jnnuVCY7cqSQ==" saltValue="YzFuBgfBOdPObjccp9YiYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="94">
   <si>
     <t>Modulos</t>
   </si>
@@ -1615,7 +1615,7 @@
   <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,11 +1667,9 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -1891,7 +1889,9 @@
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,9 @@
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1959,11 +1961,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>0.26666666666666666</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9jn3oK7/p2IuXKEkOea0G0jX8E59SCTQkltETqIUUY6L6xmAufePWXF0KdphPm2zC1F8+gG1A7jnnuVCY7cqSQ==" saltValue="YzFuBgfBOdPObjccp9YiYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OV5JhxOACw1GImrZVjFZIo9r7ku4+Ei77FA4s385CJmJwGFAss11J6ocFe+anW7EZ8lb/D8k4/vBtuwdnUpncg==" saltValue="/HA4Fkxh5uv3sZDs1eOVoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="100">
   <si>
     <t>Modulos</t>
   </si>
@@ -222,12 +222,6 @@
     <t>Casos de Uso</t>
   </si>
   <si>
-    <t>Diagrama de sequencias</t>
-  </si>
-  <si>
-    <t>Diagrama de Actividades/Estados</t>
-  </si>
-  <si>
     <t>UC004</t>
   </si>
   <si>
@@ -304,6 +298,30 @@
   </si>
   <si>
     <t>folege</t>
+  </si>
+  <si>
+    <t>Caso de Uso</t>
+  </si>
+  <si>
+    <t>Diagrama de Actividades</t>
+  </si>
+  <si>
+    <t>Diagrama de Sequencias</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>neyma</t>
+  </si>
+  <si>
+    <t>chelene</t>
+  </si>
+  <si>
+    <t>neima</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -410,12 +428,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -457,12 +495,493 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -575,6 +1094,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -603,7 +1206,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -982,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,7 +1670,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1123,7 +1726,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -1185,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="15"/>
     </row>
@@ -1216,11 +1819,11 @@
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -1349,11 +1952,11 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25" s="7"/>
     </row>
@@ -1367,11 +1970,11 @@
         <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,11 +1987,11 @@
         <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1403,11 +2006,11 @@
         <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1533,32 +2136,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1577,12 +2180,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1614,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,10 +2236,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1647,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1657,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1667,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1679,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1697,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
@@ -1726,7 +2329,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1741,7 +2344,7 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1752,10 +2355,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1782,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1792,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1802,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1814,10 +2417,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1826,10 +2429,10 @@
         <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1838,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1852,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1864,10 +2467,10 @@
         <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1876,10 +2479,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1890,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1908,7 +2511,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1920,10 +2523,10 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1932,10 +2535,10 @@
         <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1944,7 +2547,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1977,42 +2580,42 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B17:C33 B4:C15">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C33 D3:E3">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2037,10 +2640,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2069,10 +2672,10 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -2086,186 +2689,509 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
+    <cfRule type="cellIs" dxfId="66" priority="29" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
+    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="62" priority="25" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="60" priority="23" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="54" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
   <si>
     <t>Modulos</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>gabriel</t>
-  </si>
-  <si>
-    <t>neyma</t>
   </si>
   <si>
     <t>chelene</t>
@@ -489,23 +486,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -516,6 +513,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -523,6 +541,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -530,315 +569,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1094,90 +846,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1206,7 +874,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="96"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1554,7 +1222,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1571,7 +1239,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1592,7 +1260,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1277,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1626,7 +1294,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1309,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1324,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1675,7 +1343,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1692,7 +1360,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1377,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1724,7 +1392,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
@@ -1739,7 +1407,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1424,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1774,7 +1442,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1461,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1810,7 +1478,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1498,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1845,7 +1513,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1862,7 +1530,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1877,7 +1545,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1892,7 +1560,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1909,7 +1577,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1926,7 +1594,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1941,7 +1609,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1961,7 +1629,7 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1978,7 +1646,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1995,7 +1663,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2014,7 +1682,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +1697,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2090,9 +1758,9 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -2136,32 +1804,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2180,12 +1848,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2243,7 +1911,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2255,7 +1923,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2265,7 +1933,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2275,7 +1943,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2287,7 +1955,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2295,7 +1963,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2306,7 +1974,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +1982,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2324,7 +1992,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2334,7 +2002,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2010,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
@@ -2350,7 +2018,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2362,7 +2030,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
@@ -2370,7 +2038,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2046,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2390,7 +2058,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2068,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2078,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2424,7 +2092,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -2436,7 +2104,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2448,7 +2116,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2462,7 +2130,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2474,7 +2142,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2154,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2498,7 +2166,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2506,7 +2174,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
@@ -2516,7 +2184,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2530,7 +2198,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2210,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2580,42 +2248,42 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B17:C33 B4:C15">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C33 D3:E3">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2692,7 +2360,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2385,7 @@
       <c r="D1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="12" t="s">
         <v>93</v>
       </c>
@@ -2753,7 +2421,7 @@
       <c r="F3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2769,7 +2437,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>84</v>
@@ -2801,7 +2469,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>84</v>
@@ -2815,7 +2483,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>95</v>
@@ -2833,7 +2501,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>95</v>
@@ -2841,7 +2509,12 @@
       <c r="E8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2851,7 +2524,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>84</v>
@@ -2895,7 +2568,7 @@
       <c r="F11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2914,8 +2587,8 @@
       <c r="F12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>98</v>
+      <c r="G12" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2932,13 +2605,13 @@
         <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>98</v>
+      <c r="G13" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2950,15 +2623,20 @@
         <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -2972,7 +2650,12 @@
         <v>84</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2991,8 +2674,8 @@
       <c r="F16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>99</v>
+      <c r="G16" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,8 +2693,8 @@
       <c r="F17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>99</v>
+      <c r="G17" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +2714,7 @@
       <c r="F18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3052,7 +2735,7 @@
       <c r="F19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3071,7 +2754,7 @@
       <c r="F20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3087,108 +2770,108 @@
       <c r="E24" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
-    <cfRule type="cellIs" dxfId="66" priority="29" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
-    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G11:G13 G3 G16:G20">
-    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="63" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="62" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="60" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="54" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
   <si>
     <t>Modulos</t>
   </si>
@@ -502,7 +502,7 @@
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -513,77 +513,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -874,7 +804,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1804,32 +1734,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1848,12 +1778,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1885,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2248,42 +2178,42 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B17:C33 B4:C15">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C33 D3:E3">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2360,7 +2290,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,11 +2349,9 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2480,17 +2408,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2556,11 +2480,9 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2596,17 +2518,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>82</v>
       </c>
@@ -2662,21 +2580,17 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2706,38 +2620,30 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -2759,7 +2665,18 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
+      <c r="B21" s="10">
+        <f>(COUNTIF(B2:B20,"F")/(COUNTA(B2:B20)+COUNTBLANK(B2:B20)))</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="D21" s="10">
+        <f>(COUNTIF(D2:D20,"F")/(COUNTA(D2:D20)+COUNTBLANK(D2:D20)))</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="F21" s="10">
+        <f>(COUNTIF(F2:F20,"F")/(COUNTA(F2:F20)+COUNTBLANK(F2:F20)))</f>
+        <v>0.36842105263157893</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
@@ -2771,107 +2688,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="99">
   <si>
     <t>Modulos</t>
   </si>
@@ -2290,7 +2290,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,11 +2362,9 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
@@ -2394,11 +2392,9 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>84</v>
       </c>
@@ -2422,11 +2418,9 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2445,11 +2439,9 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>84</v>
       </c>
@@ -2538,23 +2530,17 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -2569,11 +2555,9 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2667,15 +2651,15 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <f>(COUNTIF(B2:B20,"F")/(COUNTA(B2:B20)+COUNTBLANK(B2:B20)))</f>
-        <v>0.84210526315789469</v>
+        <v>1</v>
       </c>
       <c r="D21" s="10">
         <f>(COUNTIF(D2:D20,"F")/(COUNTA(D2:D20)+COUNTBLANK(D2:D20)))</f>
-        <v>0.78947368421052633</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="F21" s="10">
         <f>(COUNTIF(F2:F20,"F")/(COUNTA(F2:F20)+COUNTBLANK(F2:F20)))</f>
-        <v>0.36842105263157893</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
   <si>
     <t>Modulos</t>
   </si>
@@ -309,16 +309,13 @@
     <t>Diagrama de Sequencias</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>gabriel</t>
-  </si>
-  <si>
     <t>chelene</t>
   </si>
   <si>
     <t>neima</t>
+  </si>
+  <si>
+    <t>mascarenhas</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,63 @@
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -804,7 +857,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1734,32 +1787,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1778,12 +1831,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2178,42 +2231,42 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B17:C33 B4:C15">
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C33 D3:E3">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2290,7 +2343,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2434,12 @@
         <v>84</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2411,7 +2469,9 @@
         <v>84</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2422,17 +2482,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2446,7 +2502,12 @@
         <v>84</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -2460,12 +2521,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -2480,11 +2536,9 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -2502,7 +2556,7 @@
         <v>82</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,11 +2572,9 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2592,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,11 +2707,11 @@
       </c>
       <c r="D21" s="10">
         <f>(COUNTIF(D2:D20,"F")/(COUNTA(D2:D20)+COUNTBLANK(D2:D20)))</f>
-        <v>0.94736842105263153</v>
+        <v>1</v>
       </c>
       <c r="F21" s="10">
         <f>(COUNTIF(F2:F20,"F")/(COUNTA(F2:F20)+COUNTBLANK(F2:F20)))</f>
-        <v>0.47368421052631576</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,118 +2723,118 @@
       <c r="E24" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G8">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+  <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="99">
   <si>
     <t>Modulos</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>mascarenhas</t>
+  </si>
+  <si>
+    <t>vania</t>
   </si>
 </sst>
 </file>
@@ -499,63 +502,7 @@
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -857,7 +804,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1787,32 +1734,32 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1831,12 +1778,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G31">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1869,7 +1816,7 @@
   <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,42 +2178,42 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 B17:C33 B4:C15">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B17:C33 B3:C15 D3:E3 A34:XFD34">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C33 D3:E3">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2343,7 +2290,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2724,117 +2671,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E20 G3 G11:G20 G5 G8:G9">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2100,9 @@
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -2121,11 +2123,9 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
@@ -2162,11 +2162,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>0.36666666666666664</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OV5JhxOACw1GImrZVjFZIo9r7ku4+Ei77FA4s385CJmJwGFAss11J6ocFe+anW7EZ8lb/D8k4/vBtuwdnUpncg==" saltValue="/HA4Fkxh5uv3sZDs1eOVoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1r4Gg3VbjBYw3dhvdYDlqlDhHQ/Ts+EBs1kB2rItMOkBteKEIqpfUd0LFnh3vKoV9uWStFXHkHMxPp6RoiaJAg==" saltValue="beWewU69ItbigLxp+5XyBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -2289,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="98">
   <si>
     <t>Modulos</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>neima</t>
-  </si>
-  <si>
-    <t>mascarenhas</t>
   </si>
   <si>
     <t>vania</t>
@@ -1815,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,7 +2287,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,11 +2379,9 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2588,11 +2583,9 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -2644,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2658,7 +2651,7 @@
       </c>
       <c r="F21" s="10">
         <f>(COUNTIF(F2:F20,"F")/(COUNTA(F2:F20)+COUNTBLANK(F2:F20)))</f>
-        <v>0.68421052631578949</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAPDR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="98">
   <si>
     <t>Modulos</t>
   </si>
@@ -496,7 +491,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -824,7 +819,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -862,9 +857,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -899,7 +894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1110,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1713,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F1gx5rhJCmNzH92EP+Z3KPD+crNo2PmNTXEZwhtqn5f3pjErnqSVSfHZJEj2bnn7omrkVfIJ0bsE4KPZFzDQLg==" saltValue="XDw6ueb4rdIgRe0Nkys9sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -1812,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,11 +2030,9 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
@@ -2074,11 +2066,9 @@
         <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
@@ -2159,11 +2149,10 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>0.36666666666666664</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OV5JhxOACw1GImrZVjFZIo9r7ku4+Ei77FA4s385CJmJwGFAss11J6ocFe+anW7EZ8lb/D8k4/vBtuwdnUpncg==" saltValue="/HA4Fkxh5uv3sZDs1eOVoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -2286,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
   <si>
     <t>Modulos</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>vania</t>
+  </si>
+  <si>
+    <t>recuperar senha</t>
+  </si>
+  <si>
+    <t>joss</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,83 +1369,82 @@
       <c r="G14" s="2"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>59</v>
-      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -1452,15 +1457,17 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="2"/>
@@ -1469,24 +1476,22 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22" s="22"/>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1499,13 +1504,13 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1518,9 +1523,11 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1531,29 +1538,28 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="7"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -1566,17 +1572,18 @@
       <c r="G26" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="2"/>
@@ -1585,43 +1592,45 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>87</v>
+      <c r="E28" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1634,95 +1643,111 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A31" s="22"/>
       <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10">
-        <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10">
+        <f>(COUNTIF(D2:D32,"F")/(COUNTA(D2:D32)+COUNTBLANK(D2:D32)))</f>
         <v>1</v>
       </c>
-      <c r="E33" s="10">
-        <f>(COUNTIF(E2:E31,"F")/(COUNTA(E2:E31)+COUNTBLANK(E2:E31)))</f>
-        <v>0.8</v>
-      </c>
-      <c r="F33" s="10">
-        <f>(COUNTIF(F2:F31,"F")/(COUNTA(F2:F31)+COUNTBLANK(F2:F31)))</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="E34" s="10">
+        <f>(COUNTIF(E2:E32,"F")/(COUNTA(E2:E32)+COUNTBLANK(E2:E32)))</f>
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="F34" s="10">
+        <f>(COUNTIF(F2:F32,"F")/(COUNTA(F2:F32)+COUNTBLANK(F2:F32)))</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
     <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="F">
@@ -1734,27 +1759,27 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14 C14:G14 A15:G32 A2:G13">
+  <conditionalFormatting sqref="A14:A15 C14:G15 A16:G33 A2:G13">
     <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14 C14:G14 A15:G32 A1:G13">
+  <conditionalFormatting sqref="A14:A15 C14:G15 A16:G33 A1:G13">
     <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14 C14:XFD14 A43:XFD1048576 A39:A42 C35:XFD42 B37:B40 A15:XFD34 A1:XFD13">
+  <conditionalFormatting sqref="A14:A15 C14:XFD15 A44:XFD1048576 A40:A43 C36:XFD43 B38:B41 A16:XFD35 A1:XFD13">
     <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G21">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1768,12 +1793,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G31">
+  <conditionalFormatting sqref="A1:G32">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
@@ -1794,7 +1819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G20</xm:sqref>
+          <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1806,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,6 +2178,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -2212,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,13 +2285,14 @@
         <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2276,7 +2303,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
     <sheet name="back-end" sheetId="2" r:id="rId2"/>
     <sheet name="base de dados" sheetId="3" r:id="rId3"/>
     <sheet name="ES" sheetId="4" r:id="rId4"/>
+    <sheet name="notas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="107">
   <si>
     <t>Modulos</t>
   </si>
@@ -316,14 +317,35 @@
     <t>recuperar senha</t>
   </si>
   <si>
-    <t>joss</t>
+    <t>funcionalidade por adicionar/melhorar</t>
+  </si>
+  <si>
+    <t>filtros nas tabelas do admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editar tabela posts na bd </t>
+  </si>
+  <si>
+    <t>paginacao (campanhas, tabelas do admin)</t>
+  </si>
+  <si>
+    <t>perfil (visualisar e editar)</t>
+  </si>
+  <si>
+    <t>botoes de formularios em steps devem ser responsivos</t>
+  </si>
+  <si>
+    <t>todas tabelas de publicacoes devem ter data</t>
+  </si>
+  <si>
+    <t>Nas edicoes do admin o botao cancelar nao pode ser um  type="reset"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +386,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -489,11 +517,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1179,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1167,7 +1196,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1188,7 +1217,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1234,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1222,24 +1251,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1252,48 +1281,42 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -1301,30 +1324,36 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1335,13 +1364,11 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1351,14 +1378,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1367,31 +1392,31 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -1399,52 +1424,51 @@
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>59</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -1457,41 +1481,46 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1504,30 +1533,26 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="A23" s="24"/>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1538,248 +1563,279 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="24"/>
       <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" s="7"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A29" s="24"/>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>39</v>
+      <c r="E30" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10">
-        <f>(COUNTIF(D2:D32,"F")/(COUNTA(D2:D32)+COUNTBLANK(D2:D32)))</f>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10">
+        <f>(COUNTIF(D2:D34,"F")/(COUNTA(D2:D34)+COUNTBLANK(D2:D34)))</f>
         <v>1</v>
       </c>
-      <c r="E34" s="10">
-        <f>(COUNTIF(E2:E32,"F")/(COUNTA(E2:E32)+COUNTBLANK(E2:E32)))</f>
-        <v>0.77419354838709675</v>
-      </c>
-      <c r="F34" s="10">
-        <f>(COUNTIF(F2:F32,"F")/(COUNTA(F2:F32)+COUNTBLANK(F2:F32)))</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="E36" s="10">
+        <f>(COUNTIF(E2:E34,"F")/(COUNTA(E2:E34)+COUNTBLANK(E2:E34)))</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F36" s="10">
+        <f>(COUNTIF(F2:F34,"F")/(COUNTA(F2:F34)+COUNTBLANK(F2:F34)))</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E9">
     <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="F">
-      <formula>NOT(ISERROR(SEARCH("F",E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+      <formula>NOT(ISERROR(SEARCH("F",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A15 C14:G15 A16:G33 A2:G13">
+  <conditionalFormatting sqref="A16:A17 C16:G17 A18:G35 A2:G15">
     <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A15 C14:G15 A16:G33 A1:G13">
+  <conditionalFormatting sqref="A16:A17 C16:G17 A18:G35 A1:G15">
     <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A15 C14:XFD15 A44:XFD1048576 A40:A43 C36:XFD43 B38:B41 A16:XFD35 A1:XFD13">
+  <conditionalFormatting sqref="A16:A17 C16:XFD17 A46:XFD1048576 A42:A45 C38:XFD45 B40:B43 A18:XFD37 A1:XFD15">
     <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G23">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1793,12 +1849,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G32">
+  <conditionalFormatting sqref="A1:G34">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
@@ -1819,7 +1875,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G21</xm:sqref>
+          <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1857,7 +1913,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1869,7 +1925,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1879,7 +1935,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1945,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1901,7 +1957,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +1965,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1976,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1928,7 +1984,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1938,7 +1994,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +2004,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +2012,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +2020,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +2032,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
@@ -1984,7 +2040,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1992,7 +2048,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2004,7 +2060,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2070,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2024,7 +2080,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2038,7 +2094,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2106,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2060,7 +2116,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2074,7 +2130,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2086,7 +2142,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2152,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2108,7 +2164,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2116,7 +2172,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2182,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2140,7 +2196,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2152,7 +2208,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2238,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2303,7 +2359,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,4 +2853,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
   <si>
     <t>Modulos</t>
   </si>
@@ -269,16 +269,10 @@
     <t>ep</t>
   </si>
   <si>
-    <t>Neima</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
     <t>lista de testemunhos-user</t>
-  </si>
-  <si>
-    <t>Chelene</t>
   </si>
   <si>
     <t>pm</t>
@@ -1140,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,11 +1204,9 @@
         <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -1253,14 +1245,14 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1283,14 +1275,14 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1325,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1381,7 +1373,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -1431,14 +1423,14 @@
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1459,7 +1451,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="15"/>
     </row>
@@ -1490,12 +1482,10 @@
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="J20" t="s">
         <v>59</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1623,12 +1613,10 @@
         <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,12 +1629,10 @@
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
@@ -1658,12 +1644,10 @@
         <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -1677,12 +1661,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
@@ -1727,7 +1709,9 @@
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
@@ -1752,11 +1736,11 @@
       </c>
       <c r="E36" s="10">
         <f>(COUNTIF(E2:E34,"F")/(COUNTA(E2:E34)+COUNTBLANK(E2:E34)))</f>
-        <v>0.81818181818181823</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="F36" s="10">
         <f>(COUNTIF(F2:F34,"F")/(COUNTA(F2:F34)+COUNTBLANK(F2:F34)))</f>
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -1794,6 +1778,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A2:A4"/>
@@ -1887,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
@@ -1920,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1930,7 +1915,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1940,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1952,7 +1937,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1970,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
@@ -1999,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2014,7 +1999,7 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2028,7 +2013,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2055,7 +2040,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -2065,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -2075,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2090,7 +2075,7 @@
         <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2102,7 +2087,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2111,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2126,7 +2111,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -2138,7 +2123,7 @@
         <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -2147,7 +2132,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2159,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2177,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2192,7 +2177,7 @@
         <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -2204,7 +2189,7 @@
         <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -2213,7 +2198,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2378,15 +2363,15 @@
         <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,15 +2379,15 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2410,15 +2395,15 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -2427,15 +2412,15 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2443,15 +2428,15 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -2460,15 +2445,15 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,15 +2461,15 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,15 +2477,15 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="20"/>
     </row>
@@ -2509,18 +2494,18 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2528,11 +2513,11 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2542,15 +2527,15 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -2559,18 +2544,18 @@
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,15 +2563,15 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="2"/>
@@ -2596,15 +2581,15 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="21"/>
     </row>
@@ -2613,15 +2598,15 @@
         <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -2630,15 +2615,15 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -2647,15 +2632,15 @@
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="21"/>
     </row>
@@ -2664,15 +2649,15 @@
         <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="21"/>
     </row>
@@ -2681,15 +2666,15 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="20"/>
     </row>
@@ -2698,18 +2683,18 @@
         <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2871,37 +2856,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAPDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="ES" sheetId="4" r:id="rId4"/>
     <sheet name="notas" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>Modulos</t>
   </si>
@@ -520,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -848,7 +853,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,9 +891,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,7 +928,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,7 +963,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fMQ1XTqrqU6c7EUYtmfkCoujaZqmO6x0Jku4re1d2Nbqclr4k+FoIxaSROK1gaVGOnX4VZZ/BeogWfNAMB01lQ==" saltValue="84B6odLeqZ4NEETjzu+crw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A2:A4"/>
@@ -1872,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,11 +2191,9 @@
         <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
@@ -2215,11 +2218,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f>(COUNTIF(D2:D31,"F")/(COUNTA(D2:D31)+COUNTBLANK(D2:D31)))</f>
-        <v>0.43333333333333335</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rLxziAdi8iv9yclRdslffREE1ijcp3koqKX+youN2O7ABfGledTjzz9noqsl26m7UgrsIsNaN1Lg2NfbpJPAWA==" saltValue="olkIITnYweQLuRBz99+X0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -2333,7 +2336,7 @@
       <c r="C13" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WpCFX9QmwZka87eiXrXlFUYcPqgikjCZqoZoB1blFykUUfaV5AJkPg86LhYoy7Vn1G59Wqv3bbK4h8hPmajaBA==" saltValue="xzCJWw7+ZpisVYWW6aNscQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="106">
   <si>
     <t>Modulos</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Nas edicoes do admin o botao cancelar nao pode ser um  type="reset"</t>
+  </si>
+  <si>
+    <t>adicionar tooltips nos icones de editar, adicionar e apagar</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2842,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,6 +2892,11 @@
         <v>104</v>
       </c>
     </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Modulos de actividades.xlsx
+++ b/Modulos de actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="notas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -840,9 +841,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1137,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2847,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
